--- a/LCD/tables/processGroups.xlsx
+++ b/LCD/tables/processGroups.xlsx
@@ -8,63 +8,66 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studium\TUM\BA\CE\data_handling\matlab_cad\CAD_Import\LCD\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75738B0-055E-4FEB-93F7-71F96FEF3406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DEAD1F-2F6C-43AB-B4EC-C1F43010E2E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="897" activeTab="1" xr2:uid="{0105656B-86BC-4F68-B06A-E19DB7F24805}"/>
   </bookViews>
   <sheets>
     <sheet name="groups" sheetId="3" r:id="rId1"/>
-    <sheet name="ship" sheetId="58" r:id="rId2"/>
-    <sheet name="nylon" sheetId="57" r:id="rId3"/>
-    <sheet name="gold" sheetId="56" r:id="rId4"/>
-    <sheet name="plastic landfill" sheetId="54" r:id="rId5"/>
-    <sheet name="plastic incineration" sheetId="53" r:id="rId6"/>
-    <sheet name="plastic recycling" sheetId="52" r:id="rId7"/>
-    <sheet name="PCB shredding" sheetId="51" r:id="rId8"/>
-    <sheet name="manual dismantling" sheetId="50" r:id="rId9"/>
-    <sheet name="copper incineration" sheetId="49" r:id="rId10"/>
-    <sheet name="alu incineration" sheetId="48" r:id="rId11"/>
-    <sheet name="solid waste incineration" sheetId="47" r:id="rId12"/>
-    <sheet name="inert waste treatment" sheetId="46" r:id="rId13"/>
-    <sheet name="PP landfill" sheetId="45" r:id="rId14"/>
-    <sheet name="PP incineration" sheetId="44" r:id="rId15"/>
-    <sheet name="PU incineration" sheetId="43" r:id="rId16"/>
-    <sheet name="PS landfill" sheetId="42" r:id="rId17"/>
-    <sheet name="PS incineration" sheetId="41" r:id="rId18"/>
-    <sheet name="alu treatment" sheetId="40" r:id="rId19"/>
-    <sheet name="electricity" sheetId="38" r:id="rId20"/>
-    <sheet name="lorry" sheetId="36" r:id="rId21"/>
-    <sheet name="train" sheetId="35" r:id="rId22"/>
-    <sheet name="flight" sheetId="39" r:id="rId23"/>
-    <sheet name="welding alu" sheetId="33" r:id="rId24"/>
-    <sheet name="welding steel" sheetId="32" r:id="rId25"/>
-    <sheet name="aluPrimary" sheetId="2" r:id="rId26"/>
-    <sheet name="aluSecondary" sheetId="55" r:id="rId27"/>
-    <sheet name="steel" sheetId="4" r:id="rId28"/>
-    <sheet name="csteel" sheetId="5" r:id="rId29"/>
-    <sheet name="copper" sheetId="6" r:id="rId30"/>
-    <sheet name="titanium" sheetId="7" r:id="rId31"/>
-    <sheet name="PU" sheetId="8" r:id="rId32"/>
-    <sheet name="paint" sheetId="9" r:id="rId33"/>
-    <sheet name="PCB" sheetId="10" r:id="rId34"/>
-    <sheet name="laser" sheetId="11" r:id="rId35"/>
-    <sheet name="drilling alu" sheetId="12" r:id="rId36"/>
-    <sheet name="milling alu" sheetId="13" r:id="rId37"/>
-    <sheet name="turning alu" sheetId="14" r:id="rId38"/>
-    <sheet name="drilling steel" sheetId="15" r:id="rId39"/>
-    <sheet name="milling steel" sheetId="16" r:id="rId40"/>
-    <sheet name="turning steel" sheetId="17" r:id="rId41"/>
-    <sheet name="drilling csteel" sheetId="18" r:id="rId42"/>
-    <sheet name="milling csteel" sheetId="19" r:id="rId43"/>
-    <sheet name="turning csteel" sheetId="20" r:id="rId44"/>
-    <sheet name="drilling brass" sheetId="21" r:id="rId45"/>
-    <sheet name="turning brass" sheetId="22" r:id="rId46"/>
-    <sheet name="drilling cast iron" sheetId="23" r:id="rId47"/>
-    <sheet name="milling cast iron" sheetId="24" r:id="rId48"/>
-    <sheet name="turning cast iron" sheetId="25" r:id="rId49"/>
-    <sheet name="impact extrusion, alu" sheetId="26" r:id="rId50"/>
-    <sheet name="deep drawing, steel" sheetId="27" r:id="rId51"/>
-    <sheet name="steel, continuous" sheetId="28" r:id="rId52"/>
+    <sheet name="PE incineration" sheetId="60" r:id="rId2"/>
+    <sheet name="PE landfill" sheetId="61" r:id="rId3"/>
+    <sheet name="PE production" sheetId="59" r:id="rId4"/>
+    <sheet name="ship" sheetId="58" r:id="rId5"/>
+    <sheet name="nylon" sheetId="57" r:id="rId6"/>
+    <sheet name="gold" sheetId="56" r:id="rId7"/>
+    <sheet name="plastic landfill" sheetId="54" r:id="rId8"/>
+    <sheet name="plastic incineration" sheetId="53" r:id="rId9"/>
+    <sheet name="plastic recycling" sheetId="52" r:id="rId10"/>
+    <sheet name="PCB shredding" sheetId="51" r:id="rId11"/>
+    <sheet name="manual dismantling" sheetId="50" r:id="rId12"/>
+    <sheet name="copper incineration" sheetId="49" r:id="rId13"/>
+    <sheet name="alu incineration" sheetId="48" r:id="rId14"/>
+    <sheet name="solid waste incineration" sheetId="47" r:id="rId15"/>
+    <sheet name="inert waste treatment" sheetId="46" r:id="rId16"/>
+    <sheet name="PP landfill" sheetId="45" r:id="rId17"/>
+    <sheet name="PP incineration" sheetId="44" r:id="rId18"/>
+    <sheet name="PU incineration" sheetId="43" r:id="rId19"/>
+    <sheet name="PS landfill" sheetId="42" r:id="rId20"/>
+    <sheet name="PS incineration" sheetId="41" r:id="rId21"/>
+    <sheet name="alu treatment" sheetId="40" r:id="rId22"/>
+    <sheet name="electricity" sheetId="38" r:id="rId23"/>
+    <sheet name="lorry" sheetId="36" r:id="rId24"/>
+    <sheet name="train" sheetId="35" r:id="rId25"/>
+    <sheet name="flight" sheetId="39" r:id="rId26"/>
+    <sheet name="welding alu" sheetId="33" r:id="rId27"/>
+    <sheet name="welding steel" sheetId="32" r:id="rId28"/>
+    <sheet name="aluPrimary" sheetId="2" r:id="rId29"/>
+    <sheet name="aluSecondary" sheetId="55" r:id="rId30"/>
+    <sheet name="steel" sheetId="4" r:id="rId31"/>
+    <sheet name="csteel" sheetId="5" r:id="rId32"/>
+    <sheet name="copper" sheetId="6" r:id="rId33"/>
+    <sheet name="titanium" sheetId="7" r:id="rId34"/>
+    <sheet name="PU" sheetId="8" r:id="rId35"/>
+    <sheet name="paint" sheetId="9" r:id="rId36"/>
+    <sheet name="PCB" sheetId="10" r:id="rId37"/>
+    <sheet name="laser" sheetId="11" r:id="rId38"/>
+    <sheet name="drilling alu" sheetId="12" r:id="rId39"/>
+    <sheet name="milling alu" sheetId="13" r:id="rId40"/>
+    <sheet name="turning alu" sheetId="14" r:id="rId41"/>
+    <sheet name="drilling steel" sheetId="15" r:id="rId42"/>
+    <sheet name="milling steel" sheetId="16" r:id="rId43"/>
+    <sheet name="turning steel" sheetId="17" r:id="rId44"/>
+    <sheet name="drilling csteel" sheetId="18" r:id="rId45"/>
+    <sheet name="milling csteel" sheetId="19" r:id="rId46"/>
+    <sheet name="turning csteel" sheetId="20" r:id="rId47"/>
+    <sheet name="drilling brass" sheetId="21" r:id="rId48"/>
+    <sheet name="turning brass" sheetId="22" r:id="rId49"/>
+    <sheet name="drilling cast iron" sheetId="23" r:id="rId50"/>
+    <sheet name="milling cast iron" sheetId="24" r:id="rId51"/>
+    <sheet name="turning cast iron" sheetId="25" r:id="rId52"/>
+    <sheet name="impact extrusion, alu" sheetId="26" r:id="rId53"/>
+    <sheet name="deep drawing, steel" sheetId="27" r:id="rId54"/>
+    <sheet name="steel, continuous" sheetId="28" r:id="rId55"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="540">
   <si>
     <t>steel</t>
   </si>
@@ -1624,6 +1627,78 @@
   </si>
   <si>
     <t>transport, freight, sea, container ship with reefer, freezing</t>
+  </si>
+  <si>
+    <t>PE production</t>
+  </si>
+  <si>
+    <t>polyethylene, high density, granulate</t>
+  </si>
+  <si>
+    <t>market for polyethylene, high density, granulate</t>
+  </si>
+  <si>
+    <t>market for polyethylene, linear low density, granulate</t>
+  </si>
+  <si>
+    <t>polyethylene, linear low density, granulate</t>
+  </si>
+  <si>
+    <t>market for polyethylene, low density, granulate</t>
+  </si>
+  <si>
+    <t>polyethylene, low density, granulate</t>
+  </si>
+  <si>
+    <t>PE incineration</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, municipal incineration</t>
+  </si>
+  <si>
+    <t>waste polyethylene</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, municipal incineration with fly ash extraction</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, open burning</t>
+  </si>
+  <si>
+    <t>PE landfill</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, open dump, dry infiltration class (100mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, open dump, hyperarid infiltration class (-250mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, open dump, moist infiltration class (300mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, open dump, very wet infiltration class (1000mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, open dump, wet infiltration class (500mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, sanitary landfill</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, unsanitary landfill, dry infiltration class (100mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, unsanitary landfill, hyperarid infiltration class (-250mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, unsanitary landfill, moist infiltration class (300mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, unsanitary landfill, very wet infiltration class (1000mm)</t>
+  </si>
+  <si>
+    <t>treatment of waste polyethylene, unsanitary landfill, wet infiltration class (500mm)</t>
   </si>
 </sst>
 </file>
@@ -2103,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18732AA3-F4E4-432C-BA04-2EFDBE3BEB41}">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2371,13 +2446,28 @@
         <v>512</v>
       </c>
     </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A52">
+  <conditionalFormatting sqref="A4:A55">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Sheet"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A52">
+  <conditionalFormatting sqref="A4:A55">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Mill"</formula>
     </cfRule>
@@ -2400,6 +2490,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FB2AF-0D99-41A5-A68D-C5A72192CFCA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9DFE0F-C9A8-4FE2-B50E-8B6C40298A04}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C1715-5687-48BC-AD91-D653A0360BC9}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA464033-7195-4BA3-90FD-549CEBEC4C2A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2447,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45374BA3-4B25-419B-96B1-95FD498E80F5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2495,7 +2729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45531B7-83C2-4B6C-94F6-BE157D9FE468}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2675,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B221F66C-7CB0-49EE-ACE1-6793147D7AE8}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2723,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8B0B96-3498-4523-9307-52D7B94ED833}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -2826,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABAFFD9-432B-4768-A65E-0518425EF7F3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -2940,7 +3174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0B4B2B-4A80-4191-BD40-59B31034B914}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -3120,7 +3354,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60D9118-F047-4CAD-8A1B-CAA31C64B0F1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC7AECB-2706-4575-B3BD-EF85033B86F3}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -3267,7 +3560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F2BBF8-640A-44BF-A813-55FDBAAB869D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3338,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5144DD2-5C4D-4A43-B047-9552D23DF2E1}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3398,66 +3691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6C46EC-F760-409E-8CCB-669EF2613C03}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B3" t="s">
-        <v>514</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>515</v>
-      </c>
-      <c r="B4" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E8F995-E923-45F9-8271-D224CA1FD648}">
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:C4"/>
@@ -3517,7 +3751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EF9209-EFF5-4ED1-9125-1F17CFB70CD2}">
   <dimension ref="A1:C88"/>
   <sheetViews>
@@ -4504,7 +4738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1712D59-38E0-4394-80C9-A98A2C2319A8}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -4608,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E841CF-3053-4315-B760-6293FEFBA8CF}">
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:C12"/>
@@ -4756,7 +4990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED44027D-F294-4EDF-92D2-D009740DD0AA}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -4793,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3CFAD9-EC34-46CC-9602-434B26674FC7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4842,7 +5076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26A1839-8ABD-4B06-903A-19B4AC388AB2}">
   <dimension ref="A1:F48"/>
   <sheetViews>
@@ -5064,7 +5298,154 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F3FA78-EB8E-4C4F-8D27-44697C2AF71C}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B5" t="s">
+        <v>525</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>536</v>
+      </c>
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" t="s">
+        <v>525</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213FAED9-104D-4F2F-A1E3-2DE75AE558A6}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5128,7 +5509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21E0B4A-18C4-4E28-88B2-5DA2079FA284}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5187,7 +5568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F8C3F9-8C8E-4C77-A0C5-A4261840835C}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5235,7 +5616,1910 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E563222-D555-4EE3-B755-081075E2C6EA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ABFEF0-9DF4-4737-A73F-0CF1447B58EC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77CA562-336A-4890-9346-4F49A9F79BEA}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CF11BF-4A1B-4D17-A2F9-92375B987906}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8455D42-9876-41C7-BC15-662809978BF4}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A3342-F71C-46C7-A1E3-5EC56C0E0487}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120DEE2C-D790-456A-81BC-898E80BBCA8D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CE2605-4D8F-4B44-80B1-8552E187B125}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0924A44C-4EDA-4B54-90A1-7D94568986A4}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628E8B54-6630-4F69-94DC-A593A9639DFE}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F7EEBE-AC94-4BC7-8BF7-EB6E3EA125BC}">
+  <dimension ref="O1:Q3"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="15:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B452B2DD-1AEA-4FFC-AAB7-7AF6F8285F11}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C75D0F-ACF9-4177-B3C6-03262ACF1DD4}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4B649D-811E-468B-945D-EDBA72AF787C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C08A010-BDFC-4F58-BE6E-DA31A575389C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC29020-1303-436D-93EC-100F3B57C493}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12A13F-8C32-46D8-A40C-F12948A0D278}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BA66F2-F501-4BCB-95D5-0B9A15B544B1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F6C46EC-F760-409E-8CCB-669EF2613C03}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED49357-8A21-4CE2-B09A-1272687D1757}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF09D5-B5E9-4FFE-A13B-9694203C0D43}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D770A1-863B-46C6-8D22-FA1ABA578F13}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9C3D48-EE1E-4C88-8CE3-6119A977A3BD}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B99FF0E-B527-4DFA-A284-24D7D4DACBBA}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A2355A-B301-43E6-8D66-4D92A4EB9B67}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D481CF-03BE-4104-B55A-AAEF9FFEB1E8}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:H15"/>
@@ -5313,791 +7597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E563222-D555-4EE3-B755-081075E2C6EA}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ABFEF0-9DF4-4737-A73F-0CF1447B58EC}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>497</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D77CA562-336A-4890-9346-4F49A9F79BEA}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CF11BF-4A1B-4D17-A2F9-92375B987906}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8455D42-9876-41C7-BC15-662809978BF4}">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8A3342-F71C-46C7-A1E3-5EC56C0E0487}">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120DEE2C-D790-456A-81BC-898E80BBCA8D}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0924A44C-4EDA-4B54-90A1-7D94568986A4}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{628E8B54-6630-4F69-94DC-A593A9639DFE}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F7EEBE-AC94-4BC7-8BF7-EB6E3EA125BC}">
-  <dimension ref="O1:Q3"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="15:17" x14ac:dyDescent="0.25">
-      <c r="O3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5274FF6E-1C52-4070-A55C-F10DDAE66202}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -6184,729 +7684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B452B2DD-1AEA-4FFC-AAB7-7AF6F8285F11}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C75D0F-ACF9-4177-B3C6-03262ACF1DD4}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD4B649D-811E-468B-945D-EDBA72AF787C}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C08A010-BDFC-4F58-BE6E-DA31A575389C}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC29020-1303-436D-93EC-100F3B57C493}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12A13F-8C32-46D8-A40C-F12948A0D278}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28BA66F2-F501-4BCB-95D5-0B9A15B544B1}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED49357-8A21-4CE2-B09A-1272687D1757}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CF09D5-B5E9-4FFE-A13B-9694203C0D43}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D770A1-863B-46C6-8D22-FA1ABA578F13}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AD1CB2-4839-41CB-B83D-5BFE9EC9EB86}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -7075,286 +7853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9C3D48-EE1E-4C88-8CE3-6119A977A3BD}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B99FF0E-B527-4DFA-A284-24D7D4DACBBA}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A2355A-B301-43E6-8D66-4D92A4EB9B67}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECDBEA0-7CA7-4953-8868-2592F1ABD294}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -7466,148 +7965,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8FB2AF-0D99-41A5-A68D-C5A72192CFCA}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>465</v>
-      </c>
-      <c r="B3" t="s">
-        <v>466</v>
-      </c>
-      <c r="C3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9DFE0F-C9A8-4FE2-B50E-8B6C40298A04}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77C1715-5687-48BC-AD91-D653A0360BC9}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>460</v>
-      </c>
-      <c r="B3" t="s">
-        <v>461</v>
-      </c>
-      <c r="C3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>